--- a/biology/Zoologie/Aquiloeurycea_cephalica/Aquiloeurycea_cephalica.xlsx
+++ b/biology/Zoologie/Aquiloeurycea_cephalica/Aquiloeurycea_cephalica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aquiloeurycea cephalica est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aquiloeurycea cephalica est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre de 1 000 à 3 000 m d'altitude dans le Sud du Tamaulipas, au Veracruz, dans l'est de l'État de San Luis Potosí, dans l'Est de l'État de Hidalgo, au Morelos, dans le nord de l'État de Puebla et dans l'État de Mexico[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre de 1 000 à 3 000 m d'altitude dans le Sud du Tamaulipas, au Veracruz, dans l'est de l'État de San Luis Potosí, dans l'Est de l'État de Hidalgo, au Morelos, dans le nord de l'État de Puebla et dans l'État de Mexico,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1889 : The Batrachia of North America. U.S. National Museum Bulletin, no 34, p. 1-525 (texte intégral).</t>
         </is>
